--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.678816371256371</v>
+        <v>9.423641</v>
       </c>
       <c r="H2">
-        <v>8.678816371256371</v>
+        <v>28.270923</v>
       </c>
       <c r="I2">
-        <v>0.3258852978424324</v>
+        <v>0.3411090217977475</v>
       </c>
       <c r="J2">
-        <v>0.3258852978424324</v>
+        <v>0.3411090217977475</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.3809888108021</v>
+        <v>14.96835266666667</v>
       </c>
       <c r="N2">
-        <v>12.3809888108021</v>
+        <v>44.905058</v>
       </c>
       <c r="O2">
-        <v>0.1051143201003334</v>
+        <v>0.1240053612000741</v>
       </c>
       <c r="P2">
-        <v>0.1051143201003334</v>
+        <v>0.1240053612000741</v>
       </c>
       <c r="Q2">
-        <v>107.4523283835312</v>
+        <v>141.0563818920593</v>
       </c>
       <c r="R2">
-        <v>107.4523283835312</v>
+        <v>1269.507437028534</v>
       </c>
       <c r="S2">
-        <v>0.03425521151340193</v>
+        <v>0.04229934745663363</v>
       </c>
       <c r="T2">
-        <v>0.03425521151340193</v>
+        <v>0.04229934745663363</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.678816371256371</v>
+        <v>9.423641</v>
       </c>
       <c r="H3">
-        <v>8.678816371256371</v>
+        <v>28.270923</v>
       </c>
       <c r="I3">
-        <v>0.3258852978424324</v>
+        <v>0.3411090217977475</v>
       </c>
       <c r="J3">
-        <v>0.3258852978424324</v>
+        <v>0.3411090217977475</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.7297292562331</v>
+        <v>80.77474466666666</v>
       </c>
       <c r="N3">
-        <v>80.7297292562331</v>
+        <v>242.324234</v>
       </c>
       <c r="O3">
-        <v>0.6853936088892387</v>
+        <v>0.6691786071115035</v>
       </c>
       <c r="P3">
-        <v>0.6853936088892387</v>
+        <v>0.6691786071115035</v>
       </c>
       <c r="Q3">
-        <v>700.6384959160903</v>
+        <v>761.1921956053313</v>
       </c>
       <c r="R3">
-        <v>700.6384959160903</v>
+        <v>6850.729760447982</v>
       </c>
       <c r="S3">
-        <v>0.2233597003721692</v>
+        <v>0.2282628600797842</v>
       </c>
       <c r="T3">
-        <v>0.2233597003721692</v>
+        <v>0.2282628600797842</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.678816371256371</v>
+        <v>9.423641</v>
       </c>
       <c r="H4">
-        <v>8.678816371256371</v>
+        <v>28.270923</v>
       </c>
       <c r="I4">
-        <v>0.3258852978424324</v>
+        <v>0.3411090217977475</v>
       </c>
       <c r="J4">
-        <v>0.3258852978424324</v>
+        <v>0.3411090217977475</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.675220128486</v>
+        <v>24.96420533333334</v>
       </c>
       <c r="N4">
-        <v>24.675220128486</v>
+        <v>74.892616</v>
       </c>
       <c r="O4">
-        <v>0.2094920710104279</v>
+        <v>0.2068160316884225</v>
       </c>
       <c r="P4">
-        <v>0.2094920710104279</v>
+        <v>0.2068160316884225</v>
       </c>
       <c r="Q4">
-        <v>214.151704415459</v>
+        <v>235.2537089116187</v>
       </c>
       <c r="R4">
-        <v>214.151704415459</v>
+        <v>2117.283380204568</v>
       </c>
       <c r="S4">
-        <v>0.0682703859568613</v>
+        <v>0.07054681426132975</v>
       </c>
       <c r="T4">
-        <v>0.0682703859568613</v>
+        <v>0.07054681426132976</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.1264798302613</v>
+        <v>14.13955433333333</v>
       </c>
       <c r="H5">
-        <v>14.1264798302613</v>
+        <v>42.418663</v>
       </c>
       <c r="I5">
-        <v>0.530442388687547</v>
+        <v>0.5118116816312757</v>
       </c>
       <c r="J5">
-        <v>0.530442388687547</v>
+        <v>0.5118116816312757</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.3809888108021</v>
+        <v>14.96835266666667</v>
       </c>
       <c r="N5">
-        <v>12.3809888108021</v>
+        <v>44.905058</v>
       </c>
       <c r="O5">
-        <v>0.1051143201003334</v>
+        <v>0.1240053612000741</v>
       </c>
       <c r="P5">
-        <v>0.1051143201003334</v>
+        <v>0.1240053612000741</v>
       </c>
       <c r="Q5">
-        <v>174.8997887144867</v>
+        <v>211.6458358108282</v>
       </c>
       <c r="R5">
-        <v>174.8997887144867</v>
+        <v>1904.812522297454</v>
       </c>
       <c r="S5">
-        <v>0.05575709103928828</v>
+        <v>0.06346739244710366</v>
       </c>
       <c r="T5">
-        <v>0.05575709103928828</v>
+        <v>0.06346739244710366</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.1264798302613</v>
+        <v>14.13955433333333</v>
       </c>
       <c r="H6">
-        <v>14.1264798302613</v>
+        <v>42.418663</v>
       </c>
       <c r="I6">
-        <v>0.530442388687547</v>
+        <v>0.5118116816312757</v>
       </c>
       <c r="J6">
-        <v>0.530442388687547</v>
+        <v>0.5118116816312757</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.7297292562331</v>
+        <v>80.77474466666666</v>
       </c>
       <c r="N6">
-        <v>80.7297292562331</v>
+        <v>242.324234</v>
       </c>
       <c r="O6">
-        <v>0.6853936088892387</v>
+        <v>0.6691786071115035</v>
       </c>
       <c r="P6">
-        <v>0.6853936088892387</v>
+        <v>0.6691786071115035</v>
       </c>
       <c r="Q6">
-        <v>1140.426892040632</v>
+        <v>1142.11889097546</v>
       </c>
       <c r="R6">
-        <v>1140.426892040632</v>
+        <v>10279.07001877914</v>
       </c>
       <c r="S6">
-        <v>0.3635618230903861</v>
+        <v>0.3424934282174133</v>
       </c>
       <c r="T6">
-        <v>0.3635618230903861</v>
+        <v>0.3424934282174133</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.1264798302613</v>
+        <v>14.13955433333333</v>
       </c>
       <c r="H7">
-        <v>14.1264798302613</v>
+        <v>42.418663</v>
       </c>
       <c r="I7">
-        <v>0.530442388687547</v>
+        <v>0.5118116816312757</v>
       </c>
       <c r="J7">
-        <v>0.530442388687547</v>
+        <v>0.5118116816312757</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.675220128486</v>
+        <v>24.96420533333334</v>
       </c>
       <c r="N7">
-        <v>24.675220128486</v>
+        <v>74.892616</v>
       </c>
       <c r="O7">
-        <v>0.2094920710104279</v>
+        <v>0.2068160316884225</v>
       </c>
       <c r="P7">
-        <v>0.2094920710104279</v>
+        <v>0.2068160316884225</v>
       </c>
       <c r="Q7">
-        <v>348.5739994523151</v>
+        <v>352.9827376991565</v>
       </c>
       <c r="R7">
-        <v>348.5739994523151</v>
+        <v>3176.844639292408</v>
       </c>
       <c r="S7">
-        <v>0.1111234745578726</v>
+        <v>0.1058508609667587</v>
       </c>
       <c r="T7">
-        <v>0.1111234745578726</v>
+        <v>0.1058508609667587</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.8262101251428</v>
+        <v>4.063282999999999</v>
       </c>
       <c r="H8">
-        <v>3.8262101251428</v>
+        <v>12.189849</v>
       </c>
       <c r="I8">
-        <v>0.1436723134700206</v>
+        <v>0.1470792965709768</v>
       </c>
       <c r="J8">
-        <v>0.1436723134700206</v>
+        <v>0.1470792965709768</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.3809888108021</v>
+        <v>14.96835266666667</v>
       </c>
       <c r="N8">
-        <v>12.3809888108021</v>
+        <v>44.905058</v>
       </c>
       <c r="O8">
-        <v>0.1051143201003334</v>
+        <v>0.1240053612000741</v>
       </c>
       <c r="P8">
-        <v>0.1051143201003334</v>
+        <v>0.1240053612000741</v>
       </c>
       <c r="Q8">
-        <v>47.3722647471707</v>
+        <v>60.82065292847132</v>
       </c>
       <c r="R8">
-        <v>47.3722647471707</v>
+        <v>547.3858763562419</v>
       </c>
       <c r="S8">
-        <v>0.01510201754764319</v>
+        <v>0.0182386212963368</v>
       </c>
       <c r="T8">
-        <v>0.01510201754764319</v>
+        <v>0.0182386212963368</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.8262101251428</v>
+        <v>4.063282999999999</v>
       </c>
       <c r="H9">
-        <v>3.8262101251428</v>
+        <v>12.189849</v>
       </c>
       <c r="I9">
-        <v>0.1436723134700206</v>
+        <v>0.1470792965709768</v>
       </c>
       <c r="J9">
-        <v>0.1436723134700206</v>
+        <v>0.1470792965709768</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.7297292562331</v>
+        <v>80.77474466666666</v>
       </c>
       <c r="N9">
-        <v>80.7297292562331</v>
+        <v>242.324234</v>
       </c>
       <c r="O9">
-        <v>0.6853936088892387</v>
+        <v>0.6691786071115035</v>
       </c>
       <c r="P9">
-        <v>0.6853936088892387</v>
+        <v>0.6691786071115035</v>
       </c>
       <c r="Q9">
-        <v>308.888907480236</v>
+        <v>328.2106468334073</v>
       </c>
       <c r="R9">
-        <v>308.888907480236</v>
+        <v>2953.895821500666</v>
       </c>
       <c r="S9">
-        <v>0.09847208542668341</v>
+        <v>0.09842231881430601</v>
       </c>
       <c r="T9">
-        <v>0.09847208542668341</v>
+        <v>0.09842231881430601</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.8262101251428</v>
+        <v>4.063282999999999</v>
       </c>
       <c r="H10">
-        <v>3.8262101251428</v>
+        <v>12.189849</v>
       </c>
       <c r="I10">
-        <v>0.1436723134700206</v>
+        <v>0.1470792965709768</v>
       </c>
       <c r="J10">
-        <v>0.1436723134700206</v>
+        <v>0.1470792965709768</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.675220128486</v>
+        <v>24.96420533333334</v>
       </c>
       <c r="N10">
-        <v>24.675220128486</v>
+        <v>74.892616</v>
       </c>
       <c r="O10">
-        <v>0.2094920710104279</v>
+        <v>0.2068160316884225</v>
       </c>
       <c r="P10">
-        <v>0.2094920710104279</v>
+        <v>0.2068160316884225</v>
       </c>
       <c r="Q10">
-        <v>94.41257709574055</v>
+        <v>101.4366311394427</v>
       </c>
       <c r="R10">
-        <v>94.41257709574055</v>
+        <v>912.929680254984</v>
       </c>
       <c r="S10">
-        <v>0.03009821049569401</v>
+        <v>0.03041835646033404</v>
       </c>
       <c r="T10">
-        <v>0.03009821049569401</v>
+        <v>0.03041835646033404</v>
       </c>
     </row>
   </sheetData>
